--- a/Congreso_2016/Simposios 2016/FILOSOFÍA DEL ARTE Y ESTÉTICA.xlsx
+++ b/Congreso_2016/Simposios 2016/FILOSOFÍA DEL ARTE Y ESTÉTICA.xlsx
@@ -46,7 +46,7 @@
     <t xml:space="preserve">Email ponente 1</t>
   </si>
   <si>
-    <t xml:space="preserve">Afiliación ponente 1</t>
+    <t xml:space="preserve">Afiliación</t>
   </si>
   <si>
     <t xml:space="preserve">Título ponencia 1</t>
@@ -223,9 +223,7 @@
     <t xml:space="preserve">ilzepetroni@gmail.com</t>
   </si>
   <si>
-    <t xml:space="preserve">UNIVERSIDAD NACIONAL DE CÓRDOBA (ARGENTINA) Ilze Petroni, es investigadora de arte contemporáneo. Doctora en Artes por la Facultad de Artes y Licenciada en Comunicación Social con Orientación en Investigación y Planeamiento en Comunicación Social por la Escuela de Ciencias de la Información de la Universidad Nacional de Córdoba (UNC). Ha trabajado como ayudante alumno y profesora adscripta en las cátedras de Movimientos Estéticos y Cultura Argentina; Seminario de Cultura Popular y Cultura Masiva y Seminario de Problemáticas de la Sociedad Contemporánea en la Escuela de Ciencias de la Información (UNC). Fue becaria de la Secretaría de Extensión Universitaria (UNC) para ejecutar su proyecto sobre fotografía y estrategias de inclusión social en la Comuna en Anisacate (2004-2005). Fue integrante del equipo de investigación dedicado a la problemática del cine argentino actual dirigido por la Mgter. María Paulinelli, con quien publicó Cine y Dictadura (2006); Poéticas en el cine argentino: 1995-2005 (2005); Cine e Imaginario. Algunos filmes de fin de siglo (2000) y participó en Cine Documental, Memoria y Derechos Humanos (Buenos Aires, 2007). Entre 2009 y 2013 fue miembro del equipo de investigación “Recuperación y análisis de información de archivo fílmico documental Canal 10 y de patrimonio visual y audiovisual de Córdoba” dirigido por la Dra. Silvia Romano y radicado en el Área Historia del Centro de Investigaciones “María Saleme de Bournichón” de la FFyH (UNC) con el subproyecto “Historia de vida de José Anselmo Pérez y conservación y preservación de su archivo fotográfico” con quien publicó La 'valija verde': historia de vida, obra fotográfica y fragmentos de la Colección Anselmo Pérez (2013). Ha participado de diversos encuentros académicos y científicos a nivel nacional e internacional. Fue becaria de postgrado Tipo I y Tipo II del Consejo Nacional de Investigaciones Científicas y Técnicas (CONICET) entre 2008 y 2012. Desde 2009 y hasta noviembre de 2014 fue coordinadora general –junto a Jorge Sepúlveda T.- de la gestión autónoma Curatoría Forense con la que brindó conferencias, conversatorios, seminarios, cursos y talleres sobre arte contemporáneo, gestión autónoma de arte, sistema, política, teoría y crítica de arte contemporáneo en Argentina, Brasil, Colombia, Chile, Ecuador, Francia, Italia, México, Perú, Uruguay y Venezuela.  En abril de 2012 funda y coordina la Red de Gestiones Autónomas de Arte Contemporáneo – Latinoamérica y, en 2013, crea la Editorial Curatoría Forense con la que edita el Directorio de Gestiones Autónomas de Arte Contemporáneo – Latinoamérica (2014) y Encuentro de Gestiones Autónomas de Artes Visuales Contemporáneas :: Córdoba 2011 (2013). 
-Actualmente, integra el equipo de investigación “Autoconciencia histórica &amp; esfera pública en el diseño y en las artes visuales, a comienzos del tercer milenio” dirigido por el Dr. Fernando Fraenza en el Centro de Producción e Investigación en Artes de la Facultad de Artes de la UNC. Vive y trabaja en Córdoba, Argentina. 
-</t>
+    <t xml:space="preserve">UNIVERSIDAD NACIONAL DE CÓRDOBA (ARGENTINA) </t>
   </si>
   <si>
     <t xml:space="preserve">Resignificar la estética: Prácticas de gestión autónoma de arte en y desde américa latina</t>
@@ -1334,8 +1332,8 @@
   </sheetPr>
   <dimension ref="A1:BH16"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="BD1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="BF2" activeCellId="0" sqref="BF2"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="N1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="P2" activeCellId="0" sqref="P2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -1345,7 +1343,7 @@
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1025" min="56" style="1" width="36"/>
   </cols>
   <sheetData>
-    <row r="1" s="6" customFormat="true" ht="36" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="1" s="6" customFormat="true" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -1370,7 +1368,7 @@
       <c r="H1" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="I1" s="3" t="s">
+      <c r="I1" s="0" t="s">
         <v>8</v>
       </c>
       <c r="J1" s="3" t="s">
@@ -1527,7 +1525,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="2" s="7" customFormat="true" ht="213.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="2" s="7" customFormat="true" ht="107.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A2" s="7" t="s">
         <v>60</v>
       </c>
@@ -1709,7 +1707,7 @@
         <v>117</v>
       </c>
     </row>
-    <row r="3" s="10" customFormat="true" ht="36" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="3" s="10" customFormat="true" ht="66.95" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A3" s="9" t="s">
         <v>118</v>
       </c>
